--- a/DATA_goal/Junction_Flooding_59.xlsx
+++ b/DATA_goal/Junction_Flooding_59.xlsx
@@ -450,8 +450,8 @@
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
@@ -461,7 +461,7 @@
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
@@ -469,11 +469,11 @@
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>41491.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>21.91</v>
+        <v>2.19</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.01</v>
+        <v>1.5</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.2</v>
+        <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>46</v>
+        <v>4.6</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>38.04</v>
+        <v>3.8</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.24</v>
+        <v>1.72</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>56.76</v>
+        <v>5.68</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>26.53</v>
+        <v>2.65</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.23</v>
+        <v>1.12</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.28</v>
+        <v>1.73</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.28</v>
+        <v>1.83</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>19.13</v>
+        <v>1.91</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.5</v>
+        <v>0.55</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>17.14</v>
+        <v>1.71</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>24.08</v>
+        <v>2.41</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.41</v>
+        <v>1.44</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.75</v>
+        <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>253.6</v>
+        <v>25.36</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>47.72</v>
+        <v>4.77</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>15.82</v>
+        <v>1.58</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>31.6</v>
+        <v>3.16</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>16.51</v>
+        <v>1.65</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.99</v>
+        <v>0.2</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>28.31</v>
+        <v>2.83</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13.98</v>
+        <v>1.4</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.59</v>
+        <v>1.26</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>14.73</v>
+        <v>1.47</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>18.91</v>
+        <v>1.89</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>50.02</v>
+        <v>5</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.77</v>
+        <v>0.88</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>19.78</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41491.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>11.34</v>
+        <v>1.13</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.82</v>
+        <v>0.78</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.65</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>24.01</v>
+        <v>2.4</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>19.86</v>
+        <v>1.99</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>8.92</v>
+        <v>0.89</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>37.08</v>
+        <v>3.71</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>13.73</v>
+        <v>1.37</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.85</v>
+        <v>0.59</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.85</v>
+        <v>0.89</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.85</v>
+        <v>0.29</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>12.47</v>
+        <v>1.25</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.69</v>
+        <v>0.77</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>127.74</v>
+        <v>12.77</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>24.93</v>
+        <v>2.49</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>8.19</v>
+        <v>0.82</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>16.41</v>
+        <v>1.64</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.81</v>
+        <v>0.88</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>17.55</v>
+        <v>1.75</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.23</v>
+        <v>0.72</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.61</v>
+        <v>0.66</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.73</v>
+        <v>0.77</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>33.56</v>
+        <v>3.36</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.49</v>
+        <v>0.45</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>10.24</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41491.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.05</v>
+        <v>1.1</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.85</v>
+        <v>0.78</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>23.61</v>
+        <v>2.36</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>19.53</v>
+        <v>1.95</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>34.56</v>
+        <v>3.46</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.38</v>
+        <v>1.34</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.8</v>
+        <v>0.58</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.57</v>
+        <v>0.96</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>1</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.65</v>
+        <v>0.86</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.19</v>
+        <v>1.22</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.45</v>
+        <v>0.75</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>124.29</v>
+        <v>12.43</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>24.2</v>
+        <v>2.42</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.98</v>
+        <v>0.8</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>16.04</v>
+        <v>1.6</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.65</v>
+        <v>0.86</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>16.46</v>
+        <v>1.65</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.05</v>
+        <v>0.71</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.38</v>
+        <v>0.64</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.47</v>
+        <v>0.75</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>31.11</v>
+        <v>3.11</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.41</v>
+        <v>0.44</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41491.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>23.83</v>
+        <v>2.38</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.56</v>
+        <v>1.76</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.36</v>
+        <v>0.14</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>51.52</v>
+        <v>5.15</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>42.6</v>
+        <v>4.26</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.75</v>
+        <v>1.88</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>70.45999999999999</v>
+        <v>7.05</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>28.85</v>
+        <v>2.89</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.8</v>
+        <v>1.28</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.14</v>
+        <v>1.91</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20.78</v>
+        <v>2.08</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>21.82</v>
+        <v>2.18</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.99</v>
+        <v>0.6</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.65</v>
+        <v>1.86</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>26.53</v>
+        <v>2.65</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.69</v>
+        <v>1.57</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>276.52</v>
+        <v>27.65</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>52.1</v>
+        <v>5.21</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.21</v>
+        <v>1.72</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>35.03</v>
+        <v>3.5</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.6</v>
+        <v>1.86</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.33</v>
+        <v>0.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>34.59</v>
+        <v>3.46</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.2</v>
+        <v>1.52</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.49</v>
+        <v>1.35</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.85</v>
+        <v>1.58</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.77</v>
+        <v>2.18</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>63.74</v>
+        <v>6.37</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>21.52</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41491.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.15</v>
+        <v>0.12</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2.25</v>
+        <v>0.23</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.86</v>
+        <v>0.19</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>12.79</v>
+        <v>1.28</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.45</v>
+        <v>0.15</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>6.6</v>
+        <v>0.66</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.21</v>
+        <v>0.32</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>5.45</v>
+        <v>0.55</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>12.23</v>
+        <v>1.22</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41491.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>6.13</v>
+        <v>0.61</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>18.18</v>
+        <v>1.82</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>15.03</v>
+        <v>1.5</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>6.65</v>
+        <v>0.67</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>24.04</v>
+        <v>2.4</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>10.24</v>
+        <v>1.02</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>4.46</v>
+        <v>0.45</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>6.7</v>
+        <v>0.67</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>7.39</v>
+        <v>0.74</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>7.69</v>
+        <v>0.77</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>2.12</v>
+        <v>0.21</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>6.62</v>
+        <v>0.66</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>9.31</v>
+        <v>0.93</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>5.66</v>
+        <v>0.57</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>93.34</v>
+        <v>9.33</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>18.32</v>
+        <v>1.83</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>6.11</v>
+        <v>0.61</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>12.18</v>
+        <v>1.22</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>6.61</v>
+        <v>0.66</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>11.48</v>
+        <v>1.15</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>5.39</v>
+        <v>0.54</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>4.83</v>
+        <v>0.48</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>5.67</v>
+        <v>0.57</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>7.71</v>
+        <v>0.77</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>21.29</v>
+        <v>2.13</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>3.4</v>
+        <v>0.34</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41491.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>21.81</v>
+        <v>2.18</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>16.19</v>
+        <v>1.62</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>47.26</v>
+        <v>4.73</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>39.07</v>
+        <v>3.91</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>17.16</v>
+        <v>1.72</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>63.21</v>
+        <v>6.32</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>26.41</v>
+        <v>2.64</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>11.77</v>
+        <v>1.18</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>17.57</v>
+        <v>1.76</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>19.06</v>
+        <v>1.91</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>20.04</v>
+        <v>2</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>17.07</v>
+        <v>1.71</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>24.33</v>
+        <v>2.43</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>14.3</v>
+        <v>1.43</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>252.48</v>
+        <v>25.25</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>47.67</v>
+        <v>4.77</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>15.76</v>
+        <v>1.58</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>32.13</v>
+        <v>3.21</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>17.02</v>
+        <v>1.7</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.16</v>
+        <v>0.22</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>31.32</v>
+        <v>3.13</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>13.92</v>
+        <v>1.39</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>12.3</v>
+        <v>1.23</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>14.46</v>
+        <v>1.45</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>19.98</v>
+        <v>2</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>57.23</v>
+        <v>5.72</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>8.91</v>
+        <v>0.89</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>19.7</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41491.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>20.95</v>
+        <v>2.09</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>15.57</v>
+        <v>1.56</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>45.41</v>
+        <v>4.54</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>37.54</v>
+        <v>3.75</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>16.48</v>
+        <v>1.65</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>64.59999999999999</v>
+        <v>6.46</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>25.36</v>
+        <v>2.54</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>11.33</v>
+        <v>1.13</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>16.89</v>
+        <v>1.69</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>18.31</v>
+        <v>1.83</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>19.26</v>
+        <v>1.93</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>5.27</v>
+        <v>0.53</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>16.39</v>
+        <v>1.64</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>23.39</v>
+        <v>2.34</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>13.72</v>
+        <v>1.37</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>242.19</v>
+        <v>24.22</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>45.86</v>
+        <v>4.59</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>15.13</v>
+        <v>1.51</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>30.93</v>
+        <v>3.09</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>16.35</v>
+        <v>1.64</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.08</v>
+        <v>0.21</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>31.35</v>
+        <v>3.14</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>13.36</v>
+        <v>1.34</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>11.8</v>
+        <v>1.18</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>13.88</v>
+        <v>1.39</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>19.2</v>
+        <v>1.92</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>58.63</v>
+        <v>5.86</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>8.56</v>
+        <v>0.86</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>18.92</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41491.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>18.93</v>
+        <v>1.89</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>14.07</v>
+        <v>1.41</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>41.03</v>
+        <v>4.1</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>33.92</v>
+        <v>3.39</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>14.9</v>
+        <v>1.49</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>58.99</v>
+        <v>5.9</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>22.92</v>
+        <v>2.29</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>10.24</v>
+        <v>1.02</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>15.26</v>
+        <v>1.53</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>16.55</v>
+        <v>1.65</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>17.41</v>
+        <v>1.74</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>4.76</v>
+        <v>0.48</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>14.81</v>
+        <v>1.48</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>21.14</v>
+        <v>2.11</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>12.4</v>
+        <v>1.24</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>218.16</v>
+        <v>21.82</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>41.45</v>
+        <v>4.15</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>13.67</v>
+        <v>1.37</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>27.95</v>
+        <v>2.8</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>14.78</v>
+        <v>1.48</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>28.48</v>
+        <v>2.85</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>12.08</v>
+        <v>1.21</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>10.66</v>
+        <v>1.07</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>12.54</v>
+        <v>1.25</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>17.35</v>
+        <v>1.74</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>53.49</v>
+        <v>5.35</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>7.74</v>
+        <v>0.77</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>17.09</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_59.xlsx
+++ b/DATA_goal/Junction_Flooding_59.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41491.34027777778</v>
+        <v>40750.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.19</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.68</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.41</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.36</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.77</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.16</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.83</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41491.34722222222</v>
+        <v>40750.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.13</v>
+        <v>0.86</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.78</v>
+        <v>0.65</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.4</v>
+        <v>1.97</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.99</v>
+        <v>1.67</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.65</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.71</v>
+        <v>2.01</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.37</v>
+        <v>1.06</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.59</v>
+        <v>0.48</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.74</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.01</v>
+        <v>0.86</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.25</v>
+        <v>0.99</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.77</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>12.77</v>
+        <v>10.07</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.49</v>
+        <v>1.9</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.82</v>
+        <v>0.63</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.64</v>
+        <v>1.3</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.88</v>
+        <v>0.66</v>
       </c>
       <c r="Y3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z3" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.13</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>3.36</v>
+        <v>1.83</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.02</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41491.35416666666</v>
+        <v>40750.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.1</v>
+        <v>2.42</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.78</v>
+        <v>1.82</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.36</v>
+        <v>5.32</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.95</v>
+        <v>4.43</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.87</v>
+        <v>1.89</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.46</v>
+        <v>7.02</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.34</v>
+        <v>2.94</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.58</v>
+        <v>1.33</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.87</v>
+        <v>1.99</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.96</v>
+        <v>2.21</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1</v>
+        <v>2.28</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.28</v>
+        <v>0.67</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.86</v>
+        <v>1.9</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.22</v>
+        <v>2.73</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.75</v>
+        <v>1.57</v>
       </c>
       <c r="R4" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>12.43</v>
+        <v>28.42</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.42</v>
+        <v>5.31</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.8</v>
+        <v>1.75</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.6</v>
+        <v>3.61</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.86</v>
+        <v>1.88</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.27</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.71</v>
+        <v>1.56</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.64</v>
+        <v>1.39</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.75</v>
+        <v>1.63</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1</v>
+        <v>2.31</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.11</v>
+        <v>6.43</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.44</v>
+        <v>1.03</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41491.36111111111</v>
+        <v>40750.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.38</v>
+        <v>1.28</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.76</v>
+        <v>0.96</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.14</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>27.65</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.23</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>3.46</v>
+        <v>2.03</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.52</v>
+        <v>0.83</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.35</v>
+        <v>0.74</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.58</v>
+        <v>0.87</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.18</v>
+        <v>1.23</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.37</v>
+        <v>3.92</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.97</v>
+        <v>0.55</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.15</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41491.36805555555</v>
+        <v>40750.86804398148</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.12</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.23</v>
+        <v>2.04</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.19</v>
+        <v>1.84</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.09</v>
+        <v>0.51</v>
       </c>
       <c r="H6" s="4" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="P6" s="4" t="n">
         <v>1.28</v>
       </c>
-      <c r="I6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.15</v>
-      </c>
       <c r="Q6" s="4" t="n">
-        <v>0.1</v>
+        <v>0.55</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>0.66</v>
+        <v>4.11</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>0.32</v>
+        <v>2.37</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.08</v>
+        <v>0.57</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>0.22</v>
+        <v>1.93</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.12</v>
+        <v>0.78</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>0.55</v>
+        <v>4.23</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.08</v>
+        <v>0.65</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.09</v>
+        <v>0.73</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.1</v>
+        <v>1.19</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.31</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>1.22</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.53</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41491.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41491.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>25.25</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.97</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41491.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>24.22</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41491.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>21.82</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.71</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41491.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>35.61</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>29.44</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>51.51</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>13.24</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>14.37</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>15.11</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>12.86</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>18.34</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>188.4</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>35.99</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>24.26</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>24.81</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>15.06</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>14.84</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_59.xlsx
+++ b/DATA_goal/Junction_Flooding_59.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -759,103 +759,103 @@
         <v>40750.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="C3" s="4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>19.65</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>20.12</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>0.65</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>10.07</v>
+        <v>100.73</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.9</v>
+        <v>18.95</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.31</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.3</v>
+        <v>13.01</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.65</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="Z3" s="4" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>1.03</v>
       </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.1</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>1.83</v>
+        <v>18.34</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.4</v>
+        <v>4.05</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40750.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.42</v>
+        <v>24.21</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.82</v>
+        <v>18.18</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.32</v>
+        <v>53.23</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.43</v>
+        <v>44.25</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.89</v>
+        <v>18.85</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>7.02</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.94</v>
+        <v>29.38</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.33</v>
+        <v>13.3</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.99</v>
+        <v>19.91</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.21</v>
+        <v>22.08</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.28</v>
+        <v>22.76</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.67</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.9</v>
+        <v>18.98</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.73</v>
+        <v>27.35</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.57</v>
+        <v>15.73</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>28.42</v>
+        <v>284.22</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.31</v>
+        <v>53.1</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.75</v>
+        <v>17.5</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.61</v>
+        <v>36.13</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.88</v>
+        <v>18.8</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.67</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.5</v>
+        <v>35.04</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.56</v>
+        <v>15.6</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.39</v>
+        <v>13.9</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.63</v>
+        <v>16.31</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.31</v>
+        <v>23.07</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.43</v>
+        <v>64.31999999999999</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.03</v>
+        <v>10.3</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.19</v>
+        <v>21.89</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40750.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.77</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.58</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.82</v>
+        <v>28.18</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.35</v>
+        <v>23.47</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.27</v>
+        <v>42.66</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.5</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.06</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.54</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.79</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.09</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.63</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.51</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.31</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>14.7</v>
+        <v>146.99</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.82</v>
+        <v>28.15</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.92</v>
+        <v>19.19</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.92</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.03</v>
+        <v>20.28</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.26</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.41</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.69</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.23</v>
+        <v>12.31</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.92</v>
+        <v>39.22</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.54</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_59.xlsx
+++ b/DATA_goal/Junction_Flooding_59.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -759,67 +759,67 @@
         <v>40750.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.630000000000001</v>
+        <v>8.631</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.5</v>
+        <v>6.504</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.21</v>
+        <v>0.209</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>19.65</v>
+        <v>19.652</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.72</v>
+        <v>16.716</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>6.53</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>20.12</v>
+        <v>20.118</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>10.56</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.83</v>
+        <v>4.833</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.41</v>
+        <v>7.407</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.23</v>
+        <v>9.228999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.56</v>
+        <v>8.555999999999999</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.12</v>
+        <v>3.122</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.86</v>
+        <v>6.863</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>9.946999999999999</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.63</v>
+        <v>5.625</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.131</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.65</v>
+        <v>0.648</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>100.73</v>
+        <v>100.732</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>18.95</v>
+        <v>18.953</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.31</v>
+        <v>6.306</v>
       </c>
       <c r="W3" s="4" t="n">
         <v>13.01</v>
@@ -828,34 +828,34 @@
         <v>6.65</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.24</v>
+        <v>1.243</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>10.29</v>
+        <v>10.292</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.74</v>
+        <v>5.738</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.35</v>
+        <v>5.349</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.21</v>
+        <v>6.206</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.4</v>
+        <v>9.404</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.03</v>
+        <v>1.028</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>18.34</v>
+        <v>18.336</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.05</v>
+        <v>4.047</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.88</v>
+        <v>7.881</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40750.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>24.21</v>
+        <v>24.214</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>18.18</v>
+        <v>18.183</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>53.23</v>
+        <v>53.226</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>44.25</v>
+        <v>44.255</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>18.85</v>
+        <v>18.854</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>70.20999999999999</v>
+        <v>70.206</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>29.38</v>
+        <v>29.377</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>13.3</v>
+        <v>13.301</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>19.91</v>
+        <v>19.906</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>22.08</v>
+        <v>22.078</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>22.76</v>
+        <v>22.756</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>6.67</v>
+        <v>6.668</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>18.98</v>
+        <v>18.977</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>27.35</v>
+        <v>27.346</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>15.73</v>
+        <v>15.726</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.229</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.965</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>284.22</v>
+        <v>284.216</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>53.1</v>
+        <v>53.095</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>17.5</v>
+        <v>17.498</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>36.13</v>
+        <v>36.132</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>18.8</v>
+        <v>18.801</v>
       </c>
       <c r="Y4" s="4" t="n">
         <v>2.67</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>35.04</v>
+        <v>35.042</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>15.6</v>
+        <v>15.601</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.9</v>
+        <v>13.898</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>16.31</v>
+        <v>16.312</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>23.07</v>
+        <v>23.068</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.579</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>64.31999999999999</v>
+        <v>64.315</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>10.3</v>
+        <v>10.305</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>21.89</v>
+        <v>21.893</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>11.54</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40750.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_59.xlsx
+++ b/DATA_goal/Junction_Flooding_59.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,100 +970,204 @@
         <v>12.77</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.58</v>
+        <v>9.579000000000001</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.314</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>28.18</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.47</v>
+        <v>23.471</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>9.888</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>42.66</v>
+        <v>42.659</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.5</v>
+        <v>15.502</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>7.06</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.54</v>
+        <v>10.539</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.79</v>
+        <v>11.791</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.09</v>
+        <v>12.092</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>3.63</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10</v>
+        <v>9.999000000000001</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.51</v>
+        <v>14.505</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.31</v>
+        <v>8.308999999999999</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.121</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>146.99</v>
+        <v>146.985</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>28.15</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>9.215999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>19.19</v>
+        <v>19.189</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.92</v>
+        <v>9.916</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.43</v>
+        <v>1.428</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.28</v>
+        <v>20.284</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>8.26</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.41</v>
+        <v>7.407</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.69</v>
+        <v>8.686</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.31</v>
+        <v>12.309</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.403</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>39.22</v>
+        <v>39.224</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.51</v>
+        <v>5.506</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.54</v>
+        <v>11.542</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40750.86804398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_59.xlsx
+++ b/DATA_goal/Junction_Flooding_59.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,204 +970,100 @@
         <v>12.77</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.579000000000001</v>
+        <v>9.58</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.314</v>
+        <v>0.31</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>28.18</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.471</v>
+        <v>23.47</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.888</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>42.659</v>
+        <v>42.66</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.502</v>
+        <v>15.5</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>7.06</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.539</v>
+        <v>10.54</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.791</v>
+        <v>11.79</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.092</v>
+        <v>12.09</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>3.63</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.999000000000001</v>
+        <v>10</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.505</v>
+        <v>14.51</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.308999999999999</v>
+        <v>8.31</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.121</v>
+        <v>0.12</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>146.985</v>
+        <v>146.99</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>28.15</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.215999999999999</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>19.189</v>
+        <v>19.19</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.916</v>
+        <v>9.92</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.428</v>
+        <v>1.43</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.284</v>
+        <v>20.28</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>8.26</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.407</v>
+        <v>7.41</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.686</v>
+        <v>8.69</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.309</v>
+        <v>12.31</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.403</v>
+        <v>0.4</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>39.224</v>
+        <v>39.22</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.506</v>
+        <v>5.51</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.542</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40750.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.75</v>
+        <v>11.54</v>
       </c>
     </row>
   </sheetData>
